--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -469,40 +469,40 @@
     <t xml:space="preserve">Upper</t>
   </si>
   <si>
-    <t xml:space="preserve">January.2025</t>
+    <t xml:space="preserve">Jan.25</t>
   </si>
   <si>
-    <t xml:space="preserve">February.2025</t>
+    <t xml:space="preserve">Feb.25</t>
   </si>
   <si>
-    <t xml:space="preserve">March.2025</t>
+    <t xml:space="preserve">Mar.25</t>
   </si>
   <si>
-    <t xml:space="preserve">April.2025</t>
+    <t xml:space="preserve">Apr.25</t>
   </si>
   <si>
-    <t xml:space="preserve">May.2025</t>
+    <t xml:space="preserve">May.25</t>
   </si>
   <si>
-    <t xml:space="preserve">June.2025</t>
+    <t xml:space="preserve">Jun.25</t>
   </si>
   <si>
-    <t xml:space="preserve">July.2025</t>
+    <t xml:space="preserve">Jul.25</t>
   </si>
   <si>
-    <t xml:space="preserve">August.2025</t>
+    <t xml:space="preserve">Aug.25</t>
   </si>
   <si>
-    <t xml:space="preserve">September.2025</t>
+    <t xml:space="preserve">Sep.25</t>
   </si>
   <si>
-    <t xml:space="preserve">October.2025</t>
+    <t xml:space="preserve">Oct.25</t>
   </si>
   <si>
-    <t xml:space="preserve">November.2025</t>
+    <t xml:space="preserve">Nov.25</t>
   </si>
   <si>
-    <t xml:space="preserve">December.2025</t>
+    <t xml:space="preserve">Dec.25</t>
   </si>
   <si>
     <t xml:space="preserve">Period</t>
@@ -743,7 +743,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,7 +783,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -792,30 +792,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,47 +828,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1046,7 +1005,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,14 +1122,14 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
   </cols>
@@ -1245,7 +1204,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1267,7 +1226,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1289,7 +1248,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1311,7 +1270,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1333,7 +1292,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1355,7 +1314,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1377,7 +1336,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1399,7 +1358,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1421,7 +1380,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1443,7 +1402,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1649,7 +1608,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2:B13 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1837,7 +1796,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B2:B13 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1845,11 +1804,11 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="26" width="25.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="26" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="26" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="26" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="26" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1959,7 +1918,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2447,7 +2406,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2871,7 +2830,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="B2:B13 G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3340,144 +3299,144 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="0"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="0"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -3755,7 +3714,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="B2:B13 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4175,8 +4134,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="B2:B13 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4238,11 +4197,11 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12"/>
@@ -4666,7 +4625,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="B2:B13 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5087,7 +5046,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="B2:B13 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5305,7 +5264,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5361,7 +5320,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="18" t="n">
@@ -5376,7 +5335,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="18" t="n">
@@ -5391,7 +5350,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="18" t="n">
@@ -5406,7 +5365,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="18" t="n">
@@ -5421,7 +5380,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -5436,7 +5395,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="18" t="n">
@@ -5451,7 +5410,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -5466,7 +5425,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -5481,7 +5440,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -5496,7 +5455,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6" t="n">

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -550,7 +550,7 @@
     <t xml:space="preserve">Is H:end OK?</t>
   </si>
   <si>
-    <t xml:space="preserve">highs</t>
+    <t xml:space="preserve">gcg</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1122,8 +1122,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2:B13 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1795,8 +1795,8 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B2:B13 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1918,7 +1918,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2406,7 +2406,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2830,7 +2830,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="B2:B13 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3714,7 +3714,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="B2:B13 G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4135,7 +4135,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="B2:B13 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4625,7 +4625,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="B2:B13 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5046,7 +5046,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="B2:B13 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -79,6 +79,29 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -197,166 +220,6 @@
       </text>
     </comment>
     <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -618,7 +481,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,12 +504,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -690,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,22 +624,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -799,19 +640,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,12 +697,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFD7"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1129,7 +978,7 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
   </cols>
@@ -1160,7 +1009,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1182,7 +1031,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -1204,7 +1053,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1226,7 +1075,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1248,7 +1097,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1270,7 +1119,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1292,7 +1141,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1314,7 +1163,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1336,7 +1185,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1358,7 +1207,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1380,7 +1229,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1402,7 +1251,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1605,51 +1454,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="B1" s="11" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
-        <v>45650</v>
+        <v>45658</v>
+      </c>
+      <c r="B2" s="24" t="n">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
-        <v>45651</v>
+        <v>45767</v>
+      </c>
+      <c r="B3" s="24" t="n">
+        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
-        <v>45652</v>
+        <v>45778</v>
+      </c>
+      <c r="B4" s="24" t="n">
+        <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>45658</v>
-      </c>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>45767</v>
-      </c>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>45778</v>
-      </c>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -1768,15 +1628,9 @@
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1785,6 +1639,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1795,7 +1650,7 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1836,19 +1691,19 @@
       <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1877,27 +1732,27 @@
       <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="28" t="n">
+      <c r="I2" s="26" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900), MAX(tasks!C2:C900))</f>
         <v>46002</v>
       </c>
-      <c r="J2" s="29" t="n">
+      <c r="J2" s="27" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="30" t="b">
+      <c r="K2" s="28" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="30" t="b">
+      <c r="L2" s="28" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="30" t="b">
+      <c r="M2" s="28" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3711,10 +3566,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3723,7 +3578,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,35 +3599,11 @@
       <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="b">
-        <f aca="false">AND(G2:G938)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="b">
-        <f aca="false">AND(H2:H938)</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="b">
-        <f aca="false">AND(I2:I908)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$811,B2)&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1"/>
@@ -4123,7 +3953,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4132,17 +3961,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,14 +3989,6 @@
       <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="b">
-        <f aca="false">AND(F2:F938)</f>
-        <v>1</v>
-      </c>
-      <c r="G1" s="11" t="b">
-        <f aca="false">AND(G2:G908)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -4186,15 +4006,7 @@
       <c r="E2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973,A2)&gt;0</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -4613,7 +4425,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4622,10 +4433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4634,7 +4445,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,35 +4466,11 @@
       <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="b">
-        <f aca="false">AND(G2:G938)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="b">
-        <f aca="false">AND(H2:H938)</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="b">
-        <f aca="false">AND(I2:I908)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$811,B2)&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="12"/>
@@ -5034,7 +4820,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5043,17 +4828,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,33 +4856,17 @@
       <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="b">
-        <f aca="false">AND(F2:F938)</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="11" t="b">
-        <f aca="false">AND(G2:G908)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6"/>
       <c r="C2" s="18"/>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6"/>
@@ -5252,7 +5020,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5290,13 +5057,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="24" t="n">
+      <c r="B2" s="20" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="20" t="n">
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -5305,13 +5072,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="24" t="n">
+      <c r="B3" s="20" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="20" t="n">
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -5320,7 +5087,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="18" t="n">
@@ -5335,7 +5102,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="18" t="n">
@@ -5350,7 +5117,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="18" t="n">
@@ -5365,7 +5132,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="18" t="n">
@@ -5380,7 +5147,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -5395,7 +5162,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="18" t="n">
@@ -5410,7 +5177,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -5425,7 +5192,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -5440,7 +5207,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -5455,7 +5222,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6" t="n">

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -99,7 +99,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are dates OK?</t>
         </r>
@@ -258,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -547,7 +546,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -640,11 +639,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,6 +672,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD8CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1456,7 +1468,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1479,7 +1491,7 @@
       <c r="A2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="24" t="n">
+      <c r="B2" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -1488,7 +1500,7 @@
       <c r="A3" s="6" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="24" t="n">
+      <c r="B3" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -1497,7 +1509,7 @@
       <c r="A4" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="24" t="n">
+      <c r="B4" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -1691,19 +1703,19 @@
       <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1732,27 +1744,27 @@
       <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="26" t="n">
+      <c r="I2" s="25" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900), MAX(tasks!C2:C900))</f>
         <v>46002</v>
       </c>
-      <c r="J2" s="27" t="n">
+      <c r="J2" s="26" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="28" t="b">
+      <c r="K2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="28" t="b">
+      <c r="L2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="28" t="b">
+      <c r="M2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="29"/>
+      <c r="N2" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2684,8 +2696,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,19 +2745,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="12" t="n">
-        <v>45658</v>
+        <v>45749</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>45731</v>
+        <v>45794</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
@@ -2765,29 +2777,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>45749</v>
+        <v>45658</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>45794</v>
+        <v>45731</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B3)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
@@ -2797,29 +2809,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45658</v>
+        <v>45749</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>45748</v>
+        <v>45779</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
@@ -2829,29 +2841,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>45749</v>
+        <v>45658</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>45779</v>
+        <v>45748</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
@@ -2861,29 +2873,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>45658</v>
+        <v>45790</v>
       </c>
       <c r="D6" s="12" t="n">
-        <v>45789</v>
+        <v>45835</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
@@ -2893,29 +2905,29 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>45790</v>
+        <v>45658</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>45835</v>
+        <v>45789</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
         <v>1</v>
       </c>
@@ -2925,29 +2937,29 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>45658</v>
+        <v>45902</v>
       </c>
       <c r="D8" s="12" t="n">
-        <v>45901</v>
+        <v>45947</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
         <v>1</v>
       </c>
@@ -2957,29 +2969,29 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>45902</v>
+        <v>45658</v>
       </c>
       <c r="D9" s="12" t="n">
-        <v>45947</v>
+        <v>45901</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
         <v>1</v>
       </c>
@@ -2998,20 +3010,20 @@
         <v>45740</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>
@@ -3021,29 +3033,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>45741</v>
+        <v>45871</v>
       </c>
       <c r="D11" s="12" t="n">
-        <v>45870</v>
+        <v>45916</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B11)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
         <v>1</v>
       </c>
@@ -3053,29 +3065,29 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>45871</v>
+        <v>45741</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>45916</v>
+        <v>45870</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B12)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
         <v>1</v>
       </c>
@@ -3085,13 +3097,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>45402</v>
+        <v>45963</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0</v>
@@ -3099,15 +3111,15 @@
       <c r="F13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B13)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C13), ISNUMBER(D13), C13&lt;=D13)</f>
         <v>1</v>
       </c>
@@ -3117,29 +3129,29 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>45963</v>
+        <v>45402</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>45991</v>
+        <v>45962</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="16" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="16" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$811,B14)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C14), ISNUMBER(D14), C14&lt;=D14)</f>
         <v>1</v>
       </c>
@@ -3964,7 +3976,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3991,21 +4003,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="C2" s="12" t="n">
-        <v>46002</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,11 +4861,11 @@
       <c r="C2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6"/>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -672,23 +672,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -866,7 +849,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,7 +967,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D13 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1469,7 +1452,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1663,7 +1646,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D2:D13 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1785,7 +1768,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2273,7 +2256,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2696,8 +2679,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="D2:D13 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3581,7 +3564,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3976,7 +3959,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4435,7 +4418,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4830,7 +4813,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="D2:D13 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5029,8 +5012,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5066,7 +5049,7 @@
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5081,7 +5064,7 @@
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5096,7 +5079,7 @@
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5111,7 +5094,7 @@
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5126,7 +5109,7 @@
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5141,7 +5124,7 @@
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5156,7 +5139,7 @@
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5171,7 +5154,7 @@
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5186,7 +5169,7 @@
         <v>45915</v>
       </c>
       <c r="D10" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5201,7 +5184,7 @@
         <v>45945</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5216,7 +5199,7 @@
         <v>45973</v>
       </c>
       <c r="D12" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5231,7 +5214,7 @@
         <v>46002</v>
       </c>
       <c r="D13" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -271,10 +271,10 @@
     <t xml:space="preserve">the 1st unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
+    <t xml:space="preserve">Start</t>
   </si>
   <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -849,7 +849,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D2:D13"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1646,7 +1646,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D2:D13 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1767,8 +1767,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2256,7 +2256,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2680,7 +2680,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="D2:D13 E15"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3564,7 +3564,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3959,7 +3959,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4418,7 +4418,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4813,7 +4813,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="D2:D13 E8"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5012,8 +5012,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -257,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -379,40 +385,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
-    <t xml:space="preserve">Is T:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is T:end OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:end OK?</t>
-  </si>
-  <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -425,7 +503,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -479,8 +557,15 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +594,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -648,18 +739,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,7 +814,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -848,7 +939,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -966,7 +1057,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1451,7 +1542,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1565,7 @@
       <c r="A2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -1483,7 +1574,7 @@
       <c r="A3" s="6" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -1492,7 +1583,7 @@
       <c r="A4" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -1643,22 +1734,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1671,35 +1758,8 @@
       <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,45 +1769,553 @@
       <c r="B2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>46002</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>46002</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="25" t="n">
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="25" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900), MAX(tasks!C2:C900))</f>
         <v>46002</v>
       </c>
-      <c r="J2" s="26" t="n">
-        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="28"/>
+      <c r="E2" s="26"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1767,7 +2335,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2255,7 +2823,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2679,7 +3247,7 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3563,7 +4131,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3958,7 +4526,7 @@
   </sheetPr>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4417,7 +4985,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4812,7 +5380,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5012,7 +5580,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5063,7 +5631,7 @@
       <c r="C3" s="20" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5078,7 +5646,7 @@
       <c r="C4" s="18" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5093,7 +5661,7 @@
       <c r="C5" s="18" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5108,7 +5676,7 @@
       <c r="C6" s="18" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5123,7 +5691,7 @@
       <c r="C7" s="18" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5138,7 +5706,7 @@
       <c r="C8" s="18" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5153,7 +5721,7 @@
       <c r="C9" s="18" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5168,7 +5736,7 @@
       <c r="C10" s="6" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5183,7 +5751,7 @@
       <c r="C11" s="6" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5198,7 +5766,7 @@
       <c r="C12" s="6" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5213,7 +5781,7 @@
       <c r="C13" s="6" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -1796,7 +1796,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1991,8 +1991,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2044,7 +2044,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46002</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>
@@ -2244,7 +2245,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -1797,7 +1797,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,7 +1856,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46002</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>51</v>
@@ -1895,7 +1896,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1953,7 +1954,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46002</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>54</v>
@@ -1992,7 +1994,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1993,7 +1993,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2077,16 +2077,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,25 +2103,13 @@
         <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,28 +2122,14 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>46002</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="77">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -491,6 +492,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2084,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2292,6 +2296,65 @@
       </c>
       <c r="J2" s="7" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1635,7 +1635,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4999,7 +4999,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -387,10 +387,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -942,7 +948,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1057,10 +1063,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1068,7 +1074,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="25.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1081,8 +1087,11 @@
       <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,13 +1102,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="25" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="25" t="n">
         <f aca="false">MAX(MAX(period!C2:C900), MAX(task!C2:C900))</f>
         <v>46002</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1120,7 +1132,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,13 +1147,13 @@
         <v>39</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1150,19 +1162,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,10 +1195,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1196,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1219,7 +1231,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1230,16 +1242,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1248,19 +1260,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,10 +1293,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1294,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1317,7 +1329,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1328,16 +1340,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1346,13 +1358,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1403,7 +1415,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="D1:D2 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1414,25 +1426,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,7 +1458,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -1474,7 +1486,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1485,25 +1497,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,10 +1529,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -1545,7 +1557,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1558,34 +1570,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,16 +1611,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -1635,8 +1647,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1647,19 +1659,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,7 +1707,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="D1:D2 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2183,7 +2195,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2607,7 +2619,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3491,7 +3503,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3950,7 +3962,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4150,7 +4162,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4515,7 +4527,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D2 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5000,7 +5012,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="1" sqref="D1:D2 H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -399,6 +400,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -408,6 +412,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -415,12 +425,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -645,7 +649,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -755,10 +759,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,7 +948,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1065,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1129,31 +1129,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1161,53 +1160,36 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>45658</v>
+        <f aca="false">misc!A2+1</f>
+        <v>45657</v>
       </c>
       <c r="F2" s="12" t="n">
         <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="28" t="b">
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="28" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -1228,86 +1210,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1326,74 +1264,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="28" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1412,16 +1317,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="D1:D2 D11"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,41 +1334,11 @@
         <v>59</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1483,59 +1358,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1554,79 +1411,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1645,46 +1464,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1707,7 +1581,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="D1:D2 E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2195,7 +2069,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2619,7 +2493,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3503,7 +3377,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3962,7 +3836,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4162,7 +4036,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4527,7 +4401,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5012,7 +4886,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="1" sqref="D1:D2 H15"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
+++ b/ampl-data-input-excel/12-PM.Lisa/12-PM.Lisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -397,7 +397,7 @@
     <t xml:space="preserve">gcg</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -948,7 +948,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1065,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,7 +1467,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1539,8 +1539,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="D1:D2 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3377,7 +3377,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3836,7 +3836,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4036,7 +4036,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D2 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4886,7 +4886,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="1" sqref="D1:D2 H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
